--- a/UPDokument/inceptionfase/Interessentanalyse.xlsx
+++ b/UPDokument/inceptionfase/Interessentanalyse.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Mørch\Dropbox\Eclipse Workspace\flextur\Analysis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -77,9 +73,6 @@
     <t>Da vi som udviklere ikke er godkendt til at benytte CPR registret, falder denne Interessent uden for betydning af denne analyse.</t>
   </si>
   <si>
-    <t>MidtTrafik (selskab)</t>
-  </si>
-  <si>
     <t>MidtTrafik (bestillingsmodtagelse)</t>
   </si>
   <si>
@@ -93,6 +86,9 @@
   </si>
   <si>
     <t>De menige ansatte som skal betjene den administrative side af systemet er ikke nødvendigvis særlig IT kyndige, derfor lægges der vægt på brugervenlighed også i denne del</t>
+  </si>
+  <si>
+    <t>MidtTrafik (direktør)</t>
   </si>
 </sst>
 </file>
@@ -463,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A2:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,24 +507,24 @@
     </row>
     <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>9</v>

--- a/UPDokument/inceptionfase/Interessentanalyse.xlsx
+++ b/UPDokument/inceptionfase/Interessentanalyse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11115" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16104" windowHeight="5328"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Interessentanalyse - Flextur</t>
   </si>
@@ -89,15 +89,25 @@
   </si>
   <si>
     <t>MidtTrafik (direktør)</t>
+  </si>
+  <si>
+    <t>Interssentanalyse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -124,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -142,6 +152,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -181,8 +194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A2:E6" totalsRowShown="0" dataDxfId="5">
-  <autoFilter ref="A2:E6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabel3" displayName="Tabel3" ref="A3:E7" totalsRowShown="0" dataDxfId="5">
+  <autoFilter ref="A3:E7"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Interessentanalyse - Flextur" dataDxfId="4"/>
     <tableColumn id="2" name="Ønsker" dataDxfId="3"/>
@@ -195,9 +208,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kontor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +248,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kontor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +320,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kontor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -457,102 +470,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.85546875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" style="4" customWidth="1"/>
+    <col min="2" max="3" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="6" spans="1:5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/UPDokument/inceptionfase/Interessentanalyse.xlsx
+++ b/UPDokument/inceptionfase/Interessentanalyse.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juyoung Choi\iCloudDrive\eclipse\flextur\UPDokument\inceptionfase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16104" windowHeight="5328"/>
   </bookViews>
@@ -10,7 +15,6 @@
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -473,18 +477,18 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="24.33203125" customWidth="1"/>
     <col min="4" max="4" width="27.44140625" customWidth="1"/>
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>23</v>
       </c>
@@ -493,14 +497,14 @@
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
     </row>
-    <row r="2" spans="1:5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -517,7 +521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -534,7 +538,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -551,7 +555,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>22</v>
       </c>
@@ -568,7 +572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
@@ -586,7 +590,7 @@
     <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
